--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMC_AG.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMC_AG.XLSX
@@ -133,37 +133,37 @@
     <t>MONIQUE SILVA DE O. ARAUJO</t>
   </si>
   <si>
-    <t> </t>
+    <t>GERSILEI GONÇALVES CAJA</t>
   </si>
   <si>
-    <t> </t>
+    <t>GILMARA GONÇALVES DE SOUZA</t>
   </si>
   <si>
-    <t> </t>
+    <t>FELIPE NUNES TEIXEIRA DE ARAUJO</t>
   </si>
   <si>
-    <t> </t>
+    <t>GEANE CLAUDINO MACIEL</t>
   </si>
   <si>
-    <t> </t>
+    <t>MARCELO DE OLIVEIRA MARQUES</t>
   </si>
   <si>
     <t>3483</t>
   </si>
   <si>
-    <t> </t>
+    <t>3553</t>
   </si>
   <si>
-    <t> </t>
+    <t>3622</t>
   </si>
   <si>
-    <t> </t>
+    <t>3925</t>
   </si>
   <si>
-    <t> </t>
+    <t>4013</t>
   </si>
   <si>
-    <t> </t>
+    <t>4114</t>
   </si>
   <si>
     <t>SETOR IMC
@@ -3524,23 +3524,23 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>H12</f>
-        <v> </v>
+        <v>GERSILEI GONÇALVES CAJA</v>
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v> </v>
+        <v>GILMARA GONÇALVES DE SOUZA</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v> </v>
+        <v>FELIPE NUNES TEIXEIRA DE ARAUJO</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>GEANE CLAUDINO MACIEL</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
-        <v> </v>
+        <v>MARCELO DE OLIVEIRA MARQUES</v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
@@ -3551,23 +3551,23 @@
       <c r="W12" s="161"/>
       <c r="X12" s="161" t="str">
         <f>H12</f>
-        <v> </v>
+        <v>GERSILEI GONÇALVES CAJA</v>
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v> </v>
+        <v>GILMARA GONÇALVES DE SOUZA</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v> </v>
+        <v>FELIPE NUNES TEIXEIRA DE ARAUJO</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>GEANE CLAUDINO MACIEL</v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
-        <v> </v>
+        <v>MARCELO DE OLIVEIRA MARQUES</v>
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
@@ -3575,23 +3575,23 @@
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>GERSILEI GONÇALVES CAJA</v>
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>GILMARA GONÇALVES DE SOUZA</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>FELIPE NUNES TEIXEIRA DE ARAUJO</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>GEANE CLAUDINO MACIEL</v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>MARCELO DE OLIVEIRA MARQUES</v>
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
@@ -3599,23 +3599,23 @@
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>GERSILEI GONÇALVES CAJA</v>
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>GILMARA GONÇALVES DE SOUZA</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>FELIPE NUNES TEIXEIRA DE ARAUJO</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>GEANE CLAUDINO MACIEL</v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>MARCELO DE OLIVEIRA MARQUES</v>
       </c>
     </row>
     <row r="13" spans="1:40" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3904,23 +3904,23 @@
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v> </v>
+        <v>3553</v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v> </v>
+        <v>3622</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v> </v>
+        <v>3925</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>4013</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
-        <v> </v>
+        <v>4114</v>
       </c>
       <c r="T19" s="209"/>
       <c r="U19" s="191" t="str">
@@ -3931,23 +3931,23 @@
       <c r="W19" s="172"/>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v> </v>
+        <v>3553</v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v> </v>
+        <v>3622</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v> </v>
+        <v>3925</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>4013</v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
-        <v> </v>
+        <v>4114</v>
       </c>
       <c r="AC19" s="207" t="str">
         <f t="shared" ref="AC19:AH19" si="2">G19</f>
@@ -3955,23 +3955,23 @@
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3553</v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3622</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3925</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>4013</v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>4114</v>
       </c>
       <c r="AI19" s="205" t="str">
         <f t="shared" ref="AI19:AN19" si="3">G19</f>
@@ -3979,23 +3979,23 @@
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3553</v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3622</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3925</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>4013</v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>4114</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6609,23 +6609,23 @@
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v> </v>
+        <v>GERSILEI GONÇALVES CAJA</v>
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v> </v>
+        <v>GILMARA GONÇALVES DE SOUZA</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v> </v>
+        <v>FELIPE NUNES TEIXEIRA DE ARAUJO</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>GEANE CLAUDINO MACIEL</v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
-        <v> </v>
+        <v>MARCELO DE OLIVEIRA MARQUES</v>
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
@@ -6634,23 +6634,23 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v> </v>
+        <v>GERSILEI GONÇALVES CAJA</v>
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v> </v>
+        <v>GILMARA GONÇALVES DE SOUZA</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v> </v>
+        <v>FELIPE NUNES TEIXEIRA DE ARAUJO</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>GEANE CLAUDINO MACIEL</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
-        <v> </v>
+        <v>MARCELO DE OLIVEIRA MARQUES</v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="262"/>
@@ -6941,23 +6941,23 @@
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v> </v>
+        <v>3553</v>
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v> </v>
+        <v>3622</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v> </v>
+        <v>3925</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>4013</v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
-        <v> </v>
+        <v>4114</v>
       </c>
       <c r="M19" s="191" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
@@ -6966,23 +6966,23 @@
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v> </v>
+        <v>3553</v>
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v> </v>
+        <v>3622</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v> </v>
+        <v>3925</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>4013</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
-        <v> </v>
+        <v>4114</v>
       </c>
       <c r="T19" s="209"/>
       <c r="U19" s="262"/>
